--- a/utils/files/im_engage_network_prtion_public_postbacks.xlsx
+++ b/utils/files/im_engage_network_prtion_public_postbacks.xlsx
@@ -629,7 +629,7 @@
     <t xml:space="preserve">2022-05-03 04:19:54.206338</t>
   </si>
   <si>
-    <t xml:space="preserve">{"event": "purchases", "action": "global", "clickid": "7382703b-2a54-4963-b7de-2d1bb68a7a1b|4721307|1646224957", "revenue": "2.282", "offer_id": "01c9ff8b-6936-4a8a-9652-1f67be88f719", "source_ip": "45.92.116.134", "network_id": "playtika_flourish", "is_attributed": "1", "advertising_id": "7382703b-2a54-4963-b7de-2d1bb68a7a1b", "event_timestamp": "2022-05-03 04:19:50.869", "transport_protocol": "https"}</t>
+    <t xml:space="preserve">{"event": "purchases", "action": "global", "clickid": "7382703b-2a54-4963-b7de-2d1bb68a7a1b|4721307|1646224957", "revenue": "2.282", "offer_id": "01c9ff8b-6936-4a8a-9652-1f67be88f719", "source_ip": "45.92.116.134", "network_id": "playtika_flourish", "is_attributed": "0", "advertising_id": "7382703b-2a54-4963-b7de-2d1bb68a7a1b", "event_timestamp": "2022-05-03 04:19:50.869", "transport_protocol": "https"}</t>
   </si>
   <si>
     <t xml:space="preserve">7382703b-2a54-4963-b7de-2d1bb68a7a1b</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">2022-05-11 00:23:37.929871</t>
   </si>
   <si>
-    <t xml:space="preserve">{"event": "af_ad_watched", "action": "global", "clickid": "ae764519-b18b-46ee-ab4f-5b95a3cd0f3b|4723713|1650157854", "revenue": "N/A", "offer_id": "d65c0857-b0b3-4e4e-b278-73e1e75750f0", "source_ip": "45.92.116.152", "network_id": "kolibri_flourish", "is_attributed": "1", "advertising_id": "ae764519-b18b-46ee-ab4f-5b95a3cd0f3b", "event_timestamp": "2022-05-11 00:22:12.040", "transport_protocol": "https"}</t>
+    <t xml:space="preserve">{"event": "af_ad_watched", "action": "global", "clickid": "ae764519-b18b-46ee-ab4f-5b95a3cd0f3b|4723713|1650157854", "revenue": "N/A", "offer_id": "d65c0857-b0b3-4e4e-b278-73e1e75750f0", "source_ip": "45.92.116.152", "network_id": "kolibri_flourish", "is_attributed": "0", "advertising_id": "ae764519-b18b-46ee-ab4f-5b95a3cd0f3b", "event_timestamp": "2022-05-11 00:22:12.040", "transport_protocol": "https"}</t>
   </si>
   <si>
     <t xml:space="preserve">ae764519-b18b-46ee-ab4f-5b95a3cd0f3b</t>
@@ -871,6 +871,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -958,11 +959,11 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="123.1"/>
   </cols>
@@ -2660,8 +2661,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2677,10 +2678,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G:G A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2689,8 +2690,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
